--- a/excel/import_data_guru.xlsx
+++ b/excel/import_data_guru.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iqbal\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iqbal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EBEE7A-F539-4983-811F-A43D706F340A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D307424-FE00-461B-A7C7-C8FE4B6B550F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D18FEDD7-BCA2-4BDC-927C-CEA5B1274075}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D477A20C-60CC-407C-BA7A-F930DDD1AF25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="101">
   <si>
     <t>Nip</t>
   </si>
@@ -33,20 +33,311 @@
     <t>Nama</t>
   </si>
   <si>
-    <t>Jk</t>
-  </si>
-  <si>
-    <t>Colid</t>
+    <t>Jenis Kelamin</t>
+  </si>
+  <si>
+    <t>H. SUKIDI, S.Ag, M.Pd</t>
+  </si>
+  <si>
+    <t>Drs. H. MOH YAHYA, M.Pd</t>
+  </si>
+  <si>
+    <t>ZUBAIDI ARIF, S.Pd</t>
+  </si>
+  <si>
+    <t>HJ. SHOFA MARWATI, S.Pd</t>
+  </si>
+  <si>
+    <t>SUNARTI, S.Pd</t>
+  </si>
+  <si>
+    <t>H. WIYONO, S.Pd</t>
+  </si>
+  <si>
+    <t>MOH KOSIM, S.Pd, M.Pd</t>
+  </si>
+  <si>
+    <t>RIDA SUHASTRINI, S.Pd</t>
+  </si>
+  <si>
+    <t>NASARUDIN TAUFIK, S.Pd</t>
+  </si>
+  <si>
+    <t>TITIEK ENDRIANA, S.Pd</t>
+  </si>
+  <si>
+    <t>AGUS BUDI SATRIYO, S.Pd</t>
+  </si>
+  <si>
+    <t>ATIK SURATINAH, S.Pd</t>
+  </si>
+  <si>
+    <t>SIWI ROHDIATI, S.Pd</t>
+  </si>
+  <si>
+    <t>SITI KHOIRIYAH, S.Si, M.Si</t>
+  </si>
+  <si>
+    <t>WIDODO, S.Pd</t>
+  </si>
+  <si>
+    <t>Dra HJ. BAKTI RAHAYU</t>
+  </si>
+  <si>
+    <t>H. HARJANTO, S.Pd</t>
+  </si>
+  <si>
+    <t>Drs. IMAM SUBALI</t>
+  </si>
+  <si>
+    <t>MUHAMMAD NASHIR, S.Ag</t>
+  </si>
+  <si>
+    <t>SITI SYAMSIYAH, S.Pd</t>
+  </si>
+  <si>
+    <t>Drs. EDY SUPARMO</t>
+  </si>
+  <si>
+    <t>MASUDIN, S.Pd</t>
+  </si>
+  <si>
+    <t>DANANINGGAR S. S.Sn</t>
+  </si>
+  <si>
+    <t>SRI WIDODO, S.Pd</t>
+  </si>
+  <si>
+    <t>H. HERMAWAN L, ST, S.Pd, M.Pd</t>
+  </si>
+  <si>
+    <t>HJ. MARDININGSIH, S.Pd</t>
+  </si>
+  <si>
+    <t>DANIK ARY WIDYANTO, S.Pd</t>
+  </si>
+  <si>
+    <t>HENI SETYOWATI, S.Psi</t>
+  </si>
+  <si>
+    <t>MUH ANTAR HANAFI, S.Psi</t>
+  </si>
+  <si>
+    <t>SRI SARTINI, S.Ag</t>
+  </si>
+  <si>
+    <t>MASKURI, S.Ag</t>
+  </si>
+  <si>
+    <t>YUYUN FARISTA, S.PdI</t>
+  </si>
+  <si>
+    <t>RINI YOEWANTI. S.Pd</t>
+  </si>
+  <si>
+    <t>ANDRI TRI NUGROHO, S.Sn</t>
+  </si>
+  <si>
+    <t>PRAMUSETO RAHMAN, S.Pd</t>
+  </si>
+  <si>
+    <t>ERWIN KURNIATI, S.Pd</t>
+  </si>
+  <si>
+    <t>ANTON FATRIYANTO, S.Sn</t>
+  </si>
+  <si>
+    <t>PIPIN PRASETYAWATI, S.Pd, Gr</t>
+  </si>
+  <si>
+    <t>LAILY PURNAMAWATI, SE</t>
+  </si>
+  <si>
+    <t>SUSANDI SULISTYANINGRUM, S.Pd</t>
+  </si>
+  <si>
+    <t>WARSITO, S.Pd</t>
+  </si>
+  <si>
+    <t>FRIDA ALFANI MASLAHAH, M.Pd</t>
+  </si>
+  <si>
+    <t>MUHAMMAD WILDAN ASHARI,S.Pd</t>
+  </si>
+  <si>
+    <t>SAIEV DZAKY EL-KEMAL, SH</t>
+  </si>
+  <si>
+    <t>KURNIASIH HATMINI,SE</t>
+  </si>
+  <si>
+    <t>RATIH DIAN HANDAYANI,S.Pd</t>
+  </si>
+  <si>
+    <t>NGAIDI,S.IP</t>
+  </si>
+  <si>
+    <t>ISA AL FAJRI, Lc</t>
+  </si>
+  <si>
+    <t>ACHMAD FARIHIN,S.Pd</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>X2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,16 +345,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -71,14 +386,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency [0] 2" xfId="1" xr:uid="{591D424C-C747-48A3-88DF-A58DD08E6232}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -390,43 +757,571 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D084E88-6EBE-42E2-8DCD-426603824B11}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32611680-2E4D-4E05-AD57-3EFF2BBC551B}">
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>555</v>
-      </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>